--- a/artfynd/A 4219-2023 artfynd.xlsx
+++ b/artfynd/A 4219-2023 artfynd.xlsx
@@ -1493,7 +1493,7 @@
         <v>112304489</v>
       </c>
       <c r="B8" t="n">
-        <v>99009</v>
+        <v>99013</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/artfynd/A 4219-2023 artfynd.xlsx
+++ b/artfynd/A 4219-2023 artfynd.xlsx
@@ -1493,7 +1493,7 @@
         <v>112304489</v>
       </c>
       <c r="B8" t="n">
-        <v>99013</v>
+        <v>99014</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
